--- a/Feature-Analysis/Resize Feature/s_08_right.xlsx
+++ b/Feature-Analysis/Resize Feature/s_08_right.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.67559027777</v>
+        <v>738157.67559027777</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.67638888885</v>
+        <v>738157.67638888885</v>
       </c>
       <c r="C3" s="0">
         <v>68.999997898936272</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.67638888885</v>
+        <v>738157.67638888885</v>
       </c>
       <c r="C4" s="0">
         <v>68.999997898936272</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.67694444442</v>
+        <v>738157.67694444442</v>
       </c>
       <c r="C5" s="0">
         <v>116.99999906122684</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.67722222221</v>
+        <v>738157.67722222221</v>
       </c>
       <c r="C6" s="0">
         <v>140.99999964237213</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.67762731481</v>
+        <v>738157.67762731481</v>
       </c>
       <c r="C7" s="0">
         <v>176.00000090897083</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.67789351847</v>
+        <v>738157.67789351847</v>
       </c>
       <c r="C8" s="0">
         <v>198.99999685585499</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.67831018521</v>
+        <v>738157.67831018521</v>
       </c>
       <c r="C9" s="0">
         <v>235.00000275671482</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.67885416665</v>
+        <v>738157.67885416665</v>
       </c>
       <c r="C10" s="0">
         <v>281.99999928474426</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.67900462961</v>
+        <v>738157.67900462961</v>
       </c>
       <c r="C11" s="0">
         <v>294.99999918043613</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.67954861117</v>
+        <v>738157.67954861117</v>
       </c>
       <c r="C12" s="0">
         <v>342.00000576674938</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.67982638883</v>
+        <v>738157.67982638883</v>
       </c>
       <c r="C13" s="0">
         <v>365.99999628961086</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.68035879626</v>
+        <v>738157.68035879626</v>
       </c>
       <c r="C14" s="0">
         <v>411.99999824166298</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.68063657405</v>
+        <v>738157.68063657405</v>
       </c>
       <c r="C15" s="0">
         <v>435.99999882280827</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.68104166666</v>
+        <v>738157.68104166666</v>
       </c>
       <c r="C16" s="0">
         <v>471.00000008940697</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.68130787043</v>
+        <v>738157.68130787043</v>
       </c>
       <c r="C17" s="0">
         <v>494.00000609457493</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.68171296292</v>
+        <v>738157.68171296292</v>
       </c>
       <c r="C18" s="0">
         <v>528.99999730288982</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.68224537035</v>
+        <v>738157.68224537035</v>
       </c>
       <c r="C19" s="0">
         <v>574.99999925494194</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.68253472226</v>
+        <v>738157.68253472226</v>
       </c>
       <c r="C20" s="0">
         <v>600.00000447034836</v>
@@ -14892,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.68281250005</v>
+        <v>738157.68281250005</v>
       </c>
       <c r="C21" s="0">
         <v>624.00000505149364</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.68363425927</v>
+        <v>738157.68363425927</v>
       </c>
       <c r="C22" s="0">
         <v>695.00000216066837</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.68363425927</v>
+        <v>738157.68363425927</v>
       </c>
       <c r="C23" s="0">
         <v>695.00000216066837</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.68405092589</v>
+        <v>738157.68405092589</v>
       </c>
       <c r="C24" s="0">
         <v>730.9999980032444</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.68430555554</v>
+        <v>738157.68430555554</v>
       </c>
       <c r="C25" s="0">
         <v>752.99999937415123</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.68471064814</v>
+        <v>738157.68471064814</v>
       </c>
       <c r="C26" s="0">
         <v>788.00000064074993</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.68511574075</v>
+        <v>738157.68511574075</v>
       </c>
       <c r="C27" s="0">
         <v>823.00000190734863</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.68581018515</v>
+        <v>738157.68581018515</v>
       </c>
       <c r="C28" s="0">
         <v>882.99999833106995</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.68593749998</v>
+        <v>738157.68593749998</v>
       </c>
       <c r="C29" s="0">
         <v>893.99999901652336</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.68620370375</v>
+        <v>738157.68620370375</v>
       </c>
       <c r="C30" s="0">
         <v>917.00000502169132</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.68660879624</v>
+        <v>738157.68660879624</v>
       </c>
       <c r="C31" s="0">
         <v>951.99999623000622</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.68716435181</v>
+        <v>738157.68716435181</v>
       </c>
       <c r="C32" s="0">
         <v>999.99999739229679</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.68743055558</v>
+        <v>738157.68743055558</v>
       </c>
       <c r="C33" s="0">
         <v>1023.0000033974648</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.68783564819</v>
+        <v>738157.68783564819</v>
       </c>
       <c r="C34" s="0">
         <v>1058.0000046640635</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.68809027784</v>
+        <v>738157.68809027784</v>
       </c>
       <c r="C35" s="0">
         <v>1080.0000060349703</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.68849537033</v>
+        <v>738157.68849537033</v>
       </c>
       <c r="C36" s="0">
         <v>1114.9999972432852</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.68890046293</v>
+        <v>738157.68890046293</v>
       </c>
       <c r="C37" s="0">
         <v>1149.9999985098839</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.68929398153</v>
+        <v>738157.68929398153</v>
       </c>
       <c r="C38" s="0">
         <v>1184.0000052005053</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.68971064815</v>
+        <v>738157.68971064815</v>
       </c>
       <c r="C39" s="0">
         <v>1220.0000010430813</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.69009259262</v>
+        <v>738157.69009259262</v>
       </c>
       <c r="C40" s="0">
         <v>1253.0000030994415</v>
